--- a/Code/Results/Cases/Case_2_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001943293959162</v>
+        <v>1.037340378303135</v>
       </c>
       <c r="D2">
-        <v>1.023350934181342</v>
+        <v>1.044178949661174</v>
       </c>
       <c r="E2">
-        <v>1.020687167573806</v>
+        <v>1.05221432827621</v>
       </c>
       <c r="F2">
-        <v>1.027779751154735</v>
+        <v>1.057584219475618</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048367662879505</v>
+        <v>1.036712514000534</v>
       </c>
       <c r="J2">
-        <v>1.024066036386923</v>
+        <v>1.042443781575285</v>
       </c>
       <c r="K2">
-        <v>1.034494263330715</v>
+        <v>1.046950728911875</v>
       </c>
       <c r="L2">
-        <v>1.03186562842302</v>
+        <v>1.054963680062444</v>
       </c>
       <c r="M2">
-        <v>1.03886517457755</v>
+        <v>1.060318789219502</v>
       </c>
       <c r="N2">
-        <v>1.011645038325597</v>
+        <v>1.01803950637945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007655906352706</v>
+        <v>1.038511074985778</v>
       </c>
       <c r="D3">
-        <v>1.027668915357001</v>
+        <v>1.045074024077472</v>
       </c>
       <c r="E3">
-        <v>1.025483390126902</v>
+        <v>1.053280907062049</v>
       </c>
       <c r="F3">
-        <v>1.032791995741268</v>
+        <v>1.058674644738434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050066591278207</v>
+        <v>1.036960149036202</v>
       </c>
       <c r="J3">
-        <v>1.027940017375049</v>
+        <v>1.043257705240028</v>
       </c>
       <c r="K3">
-        <v>1.037959596429198</v>
+        <v>1.047656769698613</v>
       </c>
       <c r="L3">
-        <v>1.035800267278054</v>
+        <v>1.055842408349053</v>
       </c>
       <c r="M3">
-        <v>1.04302180894029</v>
+        <v>1.061222377196264</v>
       </c>
       <c r="N3">
-        <v>1.012958359698367</v>
+        <v>1.018312679113075</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011261023992257</v>
+        <v>1.039268196578572</v>
       </c>
       <c r="D4">
-        <v>1.030395547987984</v>
+        <v>1.045652592455614</v>
       </c>
       <c r="E4">
-        <v>1.028522508861222</v>
+        <v>1.053971610629533</v>
       </c>
       <c r="F4">
-        <v>1.035963438229184</v>
+        <v>1.059380348955775</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051123633958064</v>
+        <v>1.037118381864645</v>
       </c>
       <c r="J4">
-        <v>1.030380993155334</v>
+        <v>1.043783453724002</v>
       </c>
       <c r="K4">
-        <v>1.0401404603355</v>
+        <v>1.048112389344859</v>
       </c>
       <c r="L4">
-        <v>1.03828846098602</v>
+        <v>1.05641096069947</v>
       </c>
       <c r="M4">
-        <v>1.045646359052208</v>
+        <v>1.061806590366119</v>
       </c>
       <c r="N4">
-        <v>1.013785542481923</v>
+        <v>1.018489037336832</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012755700367843</v>
+        <v>1.03958639678062</v>
       </c>
       <c r="D5">
-        <v>1.031526314411173</v>
+        <v>1.045895678054118</v>
       </c>
       <c r="E5">
-        <v>1.029785392621369</v>
+        <v>1.054262115736919</v>
       </c>
       <c r="F5">
-        <v>1.037280227907191</v>
+        <v>1.059677057626502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051558188124991</v>
+        <v>1.037184423262094</v>
       </c>
       <c r="J5">
-        <v>1.031392050286039</v>
+        <v>1.044004260037325</v>
       </c>
       <c r="K5">
-        <v>1.041043124096134</v>
+        <v>1.048303636242602</v>
       </c>
       <c r="L5">
-        <v>1.039321216626217</v>
+        <v>1.056649969949004</v>
       </c>
       <c r="M5">
-        <v>1.046734750025794</v>
+        <v>1.062052081746473</v>
       </c>
       <c r="N5">
-        <v>1.014128076083677</v>
+        <v>1.018563082036327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01300546308508</v>
+        <v>1.039639818540728</v>
       </c>
       <c r="D6">
-        <v>1.031715282971514</v>
+        <v>1.045936484725023</v>
       </c>
       <c r="E6">
-        <v>1.029996588783445</v>
+        <v>1.054310900649037</v>
       </c>
       <c r="F6">
-        <v>1.037500375799467</v>
+        <v>1.059726878125298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051630583667236</v>
+        <v>1.037195483773789</v>
       </c>
       <c r="J6">
-        <v>1.031560941112592</v>
+        <v>1.044041321602021</v>
       </c>
       <c r="K6">
-        <v>1.041193869285641</v>
+        <v>1.048335730112266</v>
       </c>
       <c r="L6">
-        <v>1.039493857464373</v>
+        <v>1.056690100066101</v>
       </c>
       <c r="M6">
-        <v>1.046916634805047</v>
+        <v>1.062093294281801</v>
       </c>
       <c r="N6">
-        <v>1.014185288871627</v>
+        <v>1.018575508824081</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011281076902879</v>
+        <v>1.039272448751704</v>
       </c>
       <c r="D7">
-        <v>1.030410717490529</v>
+        <v>1.045655841145027</v>
       </c>
       <c r="E7">
-        <v>1.028539440752978</v>
+        <v>1.053975491848777</v>
       </c>
       <c r="F7">
-        <v>1.035981097105552</v>
+        <v>1.059384313470746</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051129478727015</v>
+        <v>1.037119266197899</v>
       </c>
       <c r="J7">
-        <v>1.030394561616061</v>
+        <v>1.043786405006007</v>
       </c>
       <c r="K7">
-        <v>1.040152576770383</v>
+        <v>1.048114945956444</v>
       </c>
       <c r="L7">
-        <v>1.038302312196552</v>
+        <v>1.056414154392337</v>
       </c>
       <c r="M7">
-        <v>1.045660960229453</v>
+        <v>1.061809871072962</v>
       </c>
       <c r="N7">
-        <v>1.013790139661907</v>
+        <v>1.018490027103955</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003893397972075</v>
+        <v>1.037736103886031</v>
       </c>
       <c r="D8">
-        <v>1.024824557428947</v>
+        <v>1.044481569565338</v>
       </c>
       <c r="E8">
-        <v>1.022321800450173</v>
+        <v>1.05257466866107</v>
       </c>
       <c r="F8">
-        <v>1.029488972608181</v>
+        <v>1.05795270792921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048950761128691</v>
+        <v>1.036796618270019</v>
       </c>
       <c r="J8">
-        <v>1.025389260713184</v>
+        <v>1.042719040614215</v>
       </c>
       <c r="K8">
-        <v>1.03567844432699</v>
+        <v>1.047189594790561</v>
       </c>
       <c r="L8">
-        <v>1.033207665008934</v>
+        <v>1.055260659602133</v>
       </c>
       <c r="M8">
-        <v>1.040283780066305</v>
+        <v>1.060624258270588</v>
       </c>
       <c r="N8">
-        <v>1.012093691728857</v>
+        <v>1.018131909867804</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901299374769341</v>
+        <v>1.035025759178714</v>
       </c>
       <c r="D9">
-        <v>1.014434764373513</v>
+        <v>1.042407712327353</v>
       </c>
       <c r="E9">
-        <v>1.010841472758574</v>
+        <v>1.050110482731557</v>
       </c>
       <c r="F9">
-        <v>1.017464809728374</v>
+        <v>1.05543098277966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044773494597463</v>
+        <v>1.036212726342805</v>
       </c>
       <c r="J9">
-        <v>1.016036112986324</v>
+        <v>1.040831176303894</v>
       </c>
       <c r="K9">
-        <v>1.02729790965177</v>
+        <v>1.045549528037066</v>
       </c>
       <c r="L9">
-        <v>1.023761069839682</v>
+        <v>1.053227707083677</v>
       </c>
       <c r="M9">
-        <v>1.03028074793384</v>
+        <v>1.058531450371361</v>
       </c>
       <c r="N9">
-        <v>1.008921269106037</v>
+        <v>1.017497770284943</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9803830136647468</v>
+        <v>1.033216678861808</v>
       </c>
       <c r="D10">
-        <v>1.007095195093803</v>
+        <v>1.041022003014896</v>
       </c>
       <c r="E10">
-        <v>1.002788404536765</v>
+        <v>1.048470523655201</v>
       </c>
       <c r="F10">
-        <v>1.009004042930174</v>
+        <v>1.053750438357903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041739582145558</v>
+        <v>1.035813145904611</v>
       </c>
       <c r="J10">
-        <v>1.009397159815996</v>
+        <v>1.039567830804744</v>
       </c>
       <c r="K10">
-        <v>1.021337514491311</v>
+        <v>1.044449754002666</v>
       </c>
       <c r="L10">
-        <v>1.017107495328971</v>
+        <v>1.051872150314914</v>
       </c>
       <c r="M10">
-        <v>1.023212607631544</v>
+        <v>1.057133792859839</v>
       </c>
       <c r="N10">
-        <v>1.006668341189542</v>
+        <v>1.017072922285086</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9760094263375629</v>
+        <v>1.032432787335734</v>
       </c>
       <c r="D11">
-        <v>1.003807712210858</v>
+        <v>1.040421226257028</v>
       </c>
       <c r="E11">
-        <v>0.9991948612497453</v>
+        <v>1.047761069058451</v>
       </c>
       <c r="F11">
-        <v>1.00522206346405</v>
+        <v>1.053022879753895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040361354036476</v>
+        <v>1.035637674467539</v>
       </c>
       <c r="J11">
-        <v>1.006415456210949</v>
+        <v>1.039019646884488</v>
       </c>
       <c r="K11">
-        <v>1.018658176140591</v>
+        <v>1.04397201660438</v>
       </c>
       <c r="L11">
-        <v>1.014131977297769</v>
+        <v>1.051285113050157</v>
       </c>
       <c r="M11">
-        <v>1.020046166706122</v>
+        <v>1.0565280029831</v>
       </c>
       <c r="N11">
-        <v>1.005656350711887</v>
+        <v>1.016888460550934</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9743602143710192</v>
+        <v>1.032141530824292</v>
       </c>
       <c r="D12">
-        <v>1.002569082862132</v>
+        <v>1.040197956951801</v>
       </c>
       <c r="E12">
-        <v>0.9978429544838101</v>
+        <v>1.047497644356891</v>
       </c>
       <c r="F12">
-        <v>1.003798261244589</v>
+        <v>1.05275265054933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039839211041646</v>
+        <v>1.035572128218073</v>
       </c>
       <c r="J12">
-        <v>1.005290780098694</v>
+        <v>1.038815853659719</v>
       </c>
       <c r="K12">
-        <v>1.017647228259845</v>
+        <v>1.043794333464679</v>
       </c>
       <c r="L12">
-        <v>1.013011597090219</v>
+        <v>1.051067049824915</v>
       </c>
       <c r="M12">
-        <v>1.018853052561135</v>
+        <v>1.056302895536532</v>
       </c>
       <c r="N12">
-        <v>1.005274623212605</v>
+        <v>1.016819867906678</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9747151206508833</v>
+        <v>1.032204010181367</v>
       </c>
       <c r="D13">
-        <v>1.002835583864919</v>
+        <v>1.04024585414668</v>
       </c>
       <c r="E13">
-        <v>0.9981337358969814</v>
+        <v>1.047554145410065</v>
       </c>
       <c r="F13">
-        <v>1.004104552500654</v>
+        <v>1.052810614808946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039951683178259</v>
+        <v>1.03558620478258</v>
       </c>
       <c r="J13">
-        <v>1.005532820684773</v>
+        <v>1.038859575856774</v>
       </c>
       <c r="K13">
-        <v>1.017864807388569</v>
+        <v>1.043832457528606</v>
       </c>
       <c r="L13">
-        <v>1.013252623717751</v>
+        <v>1.051113825654586</v>
       </c>
       <c r="M13">
-        <v>1.019109764824158</v>
+        <v>1.05635118593759</v>
       </c>
       <c r="N13">
-        <v>1.00535677485006</v>
+        <v>1.01683458467538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9758736153532883</v>
+        <v>1.032408713712812</v>
       </c>
       <c r="D14">
-        <v>1.003705690528743</v>
+        <v>1.040402773076866</v>
       </c>
       <c r="E14">
-        <v>0.9990834678753155</v>
+        <v>1.047739292288205</v>
       </c>
       <c r="F14">
-        <v>1.005104766687892</v>
+        <v>1.053000542151765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040318404907301</v>
+        <v>1.035632263909354</v>
       </c>
       <c r="J14">
-        <v>1.00632284626339</v>
+        <v>1.039002804814148</v>
       </c>
       <c r="K14">
-        <v>1.018574937297976</v>
+        <v>1.043957333960325</v>
       </c>
       <c r="L14">
-        <v>1.014039680955163</v>
+        <v>1.051267088112913</v>
       </c>
       <c r="M14">
-        <v>1.019947895839519</v>
+        <v>1.056509397373878</v>
       </c>
       <c r="N14">
-        <v>1.005624918062379</v>
+        <v>1.016882792200062</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9765840810727863</v>
+        <v>1.032534827084798</v>
       </c>
       <c r="D15">
-        <v>1.004239437631097</v>
+        <v>1.040499440876548</v>
       </c>
       <c r="E15">
-        <v>0.9996663278828445</v>
+        <v>1.047853380401029</v>
       </c>
       <c r="F15">
-        <v>1.005718474823897</v>
+        <v>1.053117565077283</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04054298547649</v>
+        <v>1.035660593642453</v>
       </c>
       <c r="J15">
-        <v>1.006807302543072</v>
+        <v>1.039091029907131</v>
       </c>
       <c r="K15">
-        <v>1.01901035908409</v>
+        <v>1.044034243928581</v>
       </c>
       <c r="L15">
-        <v>1.014522576897576</v>
+        <v>1.051361516637035</v>
       </c>
       <c r="M15">
-        <v>1.020462016070331</v>
+        <v>1.056606864698548</v>
       </c>
       <c r="N15">
-        <v>1.005789346442907</v>
+        <v>1.016912484455505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9806699100001179</v>
+        <v>1.033268691449017</v>
       </c>
       <c r="D16">
-        <v>1.007310979957491</v>
+        <v>1.041061858624591</v>
       </c>
       <c r="E16">
-        <v>1.003024560198297</v>
+        <v>1.048517621642387</v>
       </c>
       <c r="F16">
-        <v>1.009252444292454</v>
+        <v>1.053798726658973</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04182964837716</v>
+        <v>1.035824739721381</v>
       </c>
       <c r="J16">
-        <v>1.009592702846298</v>
+        <v>1.039604187716425</v>
       </c>
       <c r="K16">
-        <v>1.0215131815827</v>
+        <v>1.044481427613438</v>
       </c>
       <c r="L16">
-        <v>1.017302901299941</v>
+        <v>1.051911108472251</v>
       </c>
       <c r="M16">
-        <v>1.02342043559068</v>
+        <v>1.05717398454188</v>
       </c>
       <c r="N16">
-        <v>1.006734706248663</v>
+        <v>1.017085153851509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9831907256000331</v>
+        <v>1.033728877106606</v>
       </c>
       <c r="D17">
-        <v>1.009207658394202</v>
+        <v>1.041414445759183</v>
       </c>
       <c r="E17">
-        <v>1.005101826299592</v>
+        <v>1.048934458496244</v>
       </c>
       <c r="F17">
-        <v>1.011436682800396</v>
+        <v>1.054226035082974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042619114987552</v>
+        <v>1.035927048027658</v>
       </c>
       <c r="J17">
-        <v>1.011310544985426</v>
+        <v>1.039925770277971</v>
       </c>
       <c r="K17">
-        <v>1.023056147379493</v>
+        <v>1.044761524593153</v>
       </c>
       <c r="L17">
-        <v>1.019020989466869</v>
+        <v>1.05225583315203</v>
       </c>
       <c r="M17">
-        <v>1.025247113646662</v>
+        <v>1.057529564038731</v>
       </c>
       <c r="N17">
-        <v>1.007317706368985</v>
+        <v>1.017193330821349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9846464227973527</v>
+        <v>1.033997242895603</v>
       </c>
       <c r="D18">
-        <v>1.010303480881334</v>
+        <v>1.041620031016606</v>
       </c>
       <c r="E18">
-        <v>1.00630326314294</v>
+        <v>1.049177655959813</v>
       </c>
       <c r="F18">
-        <v>1.012699374960907</v>
+        <v>1.054475289285098</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043073408989039</v>
+        <v>1.035986486310752</v>
       </c>
       <c r="J18">
-        <v>1.012302286887965</v>
+        <v>1.040113233346542</v>
       </c>
       <c r="K18">
-        <v>1.023946701730851</v>
+        <v>1.044924753038896</v>
       </c>
       <c r="L18">
-        <v>1.020014073891015</v>
+        <v>1.052456898297129</v>
       </c>
       <c r="M18">
-        <v>1.02630244292126</v>
+        <v>1.057736910190101</v>
       </c>
       <c r="N18">
-        <v>1.007654268253098</v>
+        <v>1.017256380417593</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9851403407073813</v>
+        <v>1.034088739811994</v>
       </c>
       <c r="D19">
-        <v>1.010675381873248</v>
+        <v>1.0416901179359</v>
       </c>
       <c r="E19">
-        <v>1.006711224313959</v>
+        <v>1.049260590812017</v>
       </c>
       <c r="F19">
-        <v>1.013128032543497</v>
+        <v>1.054560280658475</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043227276663473</v>
+        <v>1.036006713133526</v>
       </c>
       <c r="J19">
-        <v>1.012638738011159</v>
+        <v>1.040177134678272</v>
       </c>
       <c r="K19">
-        <v>1.024248784917662</v>
+        <v>1.044980384740541</v>
       </c>
       <c r="L19">
-        <v>1.020351182797618</v>
+        <v>1.052525455157886</v>
       </c>
       <c r="M19">
-        <v>1.026660593118933</v>
+        <v>1.057807600162751</v>
       </c>
       <c r="N19">
-        <v>1.007768444974409</v>
+        <v>1.017277870532714</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829217929824392</v>
+        <v>1.033679509009266</v>
       </c>
       <c r="D20">
-        <v>1.009005253993771</v>
+        <v>1.041376624036919</v>
       </c>
       <c r="E20">
-        <v>1.004880017719242</v>
+        <v>1.048889729275723</v>
       </c>
       <c r="F20">
-        <v>1.011203515782891</v>
+        <v>1.054180187654393</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042535056361518</v>
+        <v>1.035916095770526</v>
       </c>
       <c r="J20">
-        <v>1.011127303985604</v>
+        <v>1.039891278960263</v>
       </c>
       <c r="K20">
-        <v>1.02289158375601</v>
+        <v>1.044731488087959</v>
       </c>
       <c r="L20">
-        <v>1.018837597243144</v>
+        <v>1.052218848178027</v>
       </c>
       <c r="M20">
-        <v>1.025052184596259</v>
+        <v>1.057491419662308</v>
       </c>
       <c r="N20">
-        <v>1.007255519629156</v>
+        <v>1.01718172944399</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9755331626382812</v>
+        <v>1.032348435967935</v>
       </c>
       <c r="D21">
-        <v>1.003449958350022</v>
+        <v>1.040356567516449</v>
       </c>
       <c r="E21">
-        <v>0.9988042770091805</v>
+        <v>1.04768476843795</v>
       </c>
       <c r="F21">
-        <v>1.004810763545451</v>
+        <v>1.052944612780189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040210700646079</v>
+        <v>1.035618710814187</v>
       </c>
       <c r="J21">
-        <v>1.006090685579445</v>
+        <v>1.038960632248238</v>
       </c>
       <c r="K21">
-        <v>1.018366263668682</v>
+        <v>1.043920567323415</v>
       </c>
       <c r="L21">
-        <v>1.013808338194322</v>
+        <v>1.051221956459704</v>
       </c>
       <c r="M21">
-        <v>1.019701564143994</v>
+        <v>1.056462810542677</v>
       </c>
       <c r="N21">
-        <v>1.005546120474351</v>
+        <v>1.016868598367537</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9707439771406479</v>
+        <v>1.031511048813188</v>
       </c>
       <c r="D22">
-        <v>0.9998551982753188</v>
+        <v>1.039714557247294</v>
       </c>
       <c r="E22">
-        <v>0.9948846337932461</v>
+        <v>1.046927730301591</v>
       </c>
       <c r="F22">
-        <v>1.000680733574749</v>
+        <v>1.052167864188438</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038689937015311</v>
+        <v>1.035429601860523</v>
       </c>
       <c r="J22">
-        <v>1.002824202514946</v>
+        <v>1.038374494515878</v>
       </c>
       <c r="K22">
-        <v>1.015429524262017</v>
+        <v>1.043409377072474</v>
       </c>
       <c r="L22">
-        <v>1.010558112790588</v>
+        <v>1.050595104540851</v>
       </c>
       <c r="M22">
-        <v>1.016238717051447</v>
+        <v>1.055815561427657</v>
       </c>
       <c r="N22">
-        <v>1.004437428487235</v>
+        <v>1.016671284388371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9732970311946552</v>
+        <v>1.031955010579558</v>
       </c>
       <c r="D23">
-        <v>1.001770895617326</v>
+        <v>1.040054961813973</v>
       </c>
       <c r="E23">
-        <v>0.9969723450487982</v>
+        <v>1.047328996852831</v>
       </c>
       <c r="F23">
-        <v>1.002881065302016</v>
+        <v>1.052579623503016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039501932494818</v>
+        <v>1.035530054175829</v>
       </c>
       <c r="J23">
-        <v>1.00456566534575</v>
+        <v>1.038685312642675</v>
       </c>
       <c r="K23">
-        <v>1.01699535197942</v>
+        <v>1.043680495187105</v>
       </c>
       <c r="L23">
-        <v>1.012289811577445</v>
+        <v>1.050927417109806</v>
       </c>
       <c r="M23">
-        <v>1.018084169267595</v>
+        <v>1.056158730130177</v>
       </c>
       <c r="N23">
-        <v>1.005028509092795</v>
+        <v>1.016775925682117</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9830433572119595</v>
+        <v>1.033701816490389</v>
       </c>
       <c r="D24">
-        <v>1.009096744130741</v>
+        <v>1.041393714270464</v>
       </c>
       <c r="E24">
-        <v>1.004980274900835</v>
+        <v>1.048909940288871</v>
       </c>
       <c r="F24">
-        <v>1.011308908867367</v>
+        <v>1.054200904095667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042573057922705</v>
+        <v>1.035921045354669</v>
       </c>
       <c r="J24">
-        <v>1.011210134291647</v>
+        <v>1.039906864443909</v>
       </c>
       <c r="K24">
-        <v>1.022965972051292</v>
+        <v>1.044745060747264</v>
       </c>
       <c r="L24">
-        <v>1.018920492184364</v>
+        <v>1.05223556011734</v>
       </c>
       <c r="M24">
-        <v>1.025140295905411</v>
+        <v>1.05750865564147</v>
       </c>
       <c r="N24">
-        <v>1.007283629906148</v>
+        <v>1.017186971756019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9937833080604871</v>
+        <v>1.035726826270536</v>
       </c>
       <c r="D25">
-        <v>1.017189991114562</v>
+        <v>1.042944405855067</v>
       </c>
       <c r="E25">
-        <v>1.01387614031714</v>
+        <v>1.050747033177167</v>
       </c>
       <c r="F25">
-        <v>1.020647657106143</v>
+        <v>1.056082800126429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045895611213159</v>
+        <v>1.036365495047791</v>
       </c>
       <c r="J25">
-        <v>1.018521715353622</v>
+        <v>1.041320072027453</v>
       </c>
       <c r="K25">
-        <v>1.029527189199782</v>
+        <v>1.045974650287754</v>
       </c>
       <c r="L25">
-        <v>1.026262799396864</v>
+        <v>1.053753317395288</v>
       </c>
       <c r="M25">
-        <v>1.032933682577439</v>
+        <v>1.059072921566171</v>
       </c>
       <c r="N25">
-        <v>1.009764567698736</v>
+        <v>1.017662077904109</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037340378303135</v>
+        <v>1.001943293959162</v>
       </c>
       <c r="D2">
-        <v>1.044178949661174</v>
+        <v>1.023350934181342</v>
       </c>
       <c r="E2">
-        <v>1.05221432827621</v>
+        <v>1.020687167573806</v>
       </c>
       <c r="F2">
-        <v>1.057584219475618</v>
+        <v>1.027779751154735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036712514000534</v>
+        <v>1.048367662879505</v>
       </c>
       <c r="J2">
-        <v>1.042443781575285</v>
+        <v>1.024066036386923</v>
       </c>
       <c r="K2">
-        <v>1.046950728911875</v>
+        <v>1.034494263330715</v>
       </c>
       <c r="L2">
-        <v>1.054963680062444</v>
+        <v>1.03186562842302</v>
       </c>
       <c r="M2">
-        <v>1.060318789219502</v>
+        <v>1.03886517457755</v>
       </c>
       <c r="N2">
-        <v>1.01803950637945</v>
+        <v>1.011645038325597</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038511074985778</v>
+        <v>1.007655906352706</v>
       </c>
       <c r="D3">
-        <v>1.045074024077472</v>
+        <v>1.027668915357001</v>
       </c>
       <c r="E3">
-        <v>1.053280907062049</v>
+        <v>1.025483390126902</v>
       </c>
       <c r="F3">
-        <v>1.058674644738434</v>
+        <v>1.032791995741268</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036960149036202</v>
+        <v>1.050066591278207</v>
       </c>
       <c r="J3">
-        <v>1.043257705240028</v>
+        <v>1.027940017375049</v>
       </c>
       <c r="K3">
-        <v>1.047656769698613</v>
+        <v>1.037959596429197</v>
       </c>
       <c r="L3">
-        <v>1.055842408349053</v>
+        <v>1.035800267278054</v>
       </c>
       <c r="M3">
-        <v>1.061222377196264</v>
+        <v>1.04302180894029</v>
       </c>
       <c r="N3">
-        <v>1.018312679113075</v>
+        <v>1.012958359698367</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039268196578572</v>
+        <v>1.011261023992257</v>
       </c>
       <c r="D4">
-        <v>1.045652592455614</v>
+        <v>1.030395547987984</v>
       </c>
       <c r="E4">
-        <v>1.053971610629533</v>
+        <v>1.028522508861222</v>
       </c>
       <c r="F4">
-        <v>1.059380348955775</v>
+        <v>1.035963438229184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037118381864645</v>
+        <v>1.051123633958064</v>
       </c>
       <c r="J4">
-        <v>1.043783453724002</v>
+        <v>1.030380993155333</v>
       </c>
       <c r="K4">
-        <v>1.048112389344859</v>
+        <v>1.040140460335499</v>
       </c>
       <c r="L4">
-        <v>1.05641096069947</v>
+        <v>1.038288460986019</v>
       </c>
       <c r="M4">
-        <v>1.061806590366119</v>
+        <v>1.045646359052208</v>
       </c>
       <c r="N4">
-        <v>1.018489037336832</v>
+        <v>1.013785542481923</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03958639678062</v>
+        <v>1.012755700367844</v>
       </c>
       <c r="D5">
-        <v>1.045895678054118</v>
+        <v>1.031526314411173</v>
       </c>
       <c r="E5">
-        <v>1.054262115736919</v>
+        <v>1.02978539262137</v>
       </c>
       <c r="F5">
-        <v>1.059677057626502</v>
+        <v>1.037280227907192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037184423262094</v>
+        <v>1.051558188124991</v>
       </c>
       <c r="J5">
-        <v>1.044004260037325</v>
+        <v>1.031392050286039</v>
       </c>
       <c r="K5">
-        <v>1.048303636242602</v>
+        <v>1.041043124096135</v>
       </c>
       <c r="L5">
-        <v>1.056649969949004</v>
+        <v>1.039321216626217</v>
       </c>
       <c r="M5">
-        <v>1.062052081746473</v>
+        <v>1.046734750025794</v>
       </c>
       <c r="N5">
-        <v>1.018563082036327</v>
+        <v>1.014128076083677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039639818540728</v>
+        <v>1.013005463085079</v>
       </c>
       <c r="D6">
-        <v>1.045936484725023</v>
+        <v>1.031715282971513</v>
       </c>
       <c r="E6">
-        <v>1.054310900649037</v>
+        <v>1.029996588783445</v>
       </c>
       <c r="F6">
-        <v>1.059726878125298</v>
+        <v>1.037500375799467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037195483773789</v>
+        <v>1.051630583667235</v>
       </c>
       <c r="J6">
-        <v>1.044041321602021</v>
+        <v>1.031560941112591</v>
       </c>
       <c r="K6">
-        <v>1.048335730112266</v>
+        <v>1.04119386928564</v>
       </c>
       <c r="L6">
-        <v>1.056690100066101</v>
+        <v>1.039493857464372</v>
       </c>
       <c r="M6">
-        <v>1.062093294281801</v>
+        <v>1.046916634805047</v>
       </c>
       <c r="N6">
-        <v>1.018575508824081</v>
+        <v>1.014185288871627</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039272448751704</v>
+        <v>1.011281076902879</v>
       </c>
       <c r="D7">
-        <v>1.045655841145027</v>
+        <v>1.030410717490529</v>
       </c>
       <c r="E7">
-        <v>1.053975491848777</v>
+        <v>1.028539440752979</v>
       </c>
       <c r="F7">
-        <v>1.059384313470746</v>
+        <v>1.035981097105553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037119266197899</v>
+        <v>1.051129478727016</v>
       </c>
       <c r="J7">
-        <v>1.043786405006007</v>
+        <v>1.030394561616061</v>
       </c>
       <c r="K7">
-        <v>1.048114945956444</v>
+        <v>1.040152576770384</v>
       </c>
       <c r="L7">
-        <v>1.056414154392337</v>
+        <v>1.038302312196552</v>
       </c>
       <c r="M7">
-        <v>1.061809871072962</v>
+        <v>1.045660960229453</v>
       </c>
       <c r="N7">
-        <v>1.018490027103955</v>
+        <v>1.013790139661908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037736103886031</v>
+        <v>1.003893397972075</v>
       </c>
       <c r="D8">
-        <v>1.044481569565338</v>
+        <v>1.024824557428947</v>
       </c>
       <c r="E8">
-        <v>1.05257466866107</v>
+        <v>1.022321800450173</v>
       </c>
       <c r="F8">
-        <v>1.05795270792921</v>
+        <v>1.029488972608181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036796618270019</v>
+        <v>1.048950761128691</v>
       </c>
       <c r="J8">
-        <v>1.042719040614215</v>
+        <v>1.025389260713184</v>
       </c>
       <c r="K8">
-        <v>1.047189594790561</v>
+        <v>1.035678444326991</v>
       </c>
       <c r="L8">
-        <v>1.055260659602133</v>
+        <v>1.033207665008934</v>
       </c>
       <c r="M8">
-        <v>1.060624258270588</v>
+        <v>1.040283780066305</v>
       </c>
       <c r="N8">
-        <v>1.018131909867804</v>
+        <v>1.012093691728857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035025759178714</v>
+        <v>0.990129937476935</v>
       </c>
       <c r="D9">
-        <v>1.042407712327353</v>
+        <v>1.014434764373513</v>
       </c>
       <c r="E9">
-        <v>1.050110482731557</v>
+        <v>1.010841472758575</v>
       </c>
       <c r="F9">
-        <v>1.05543098277966</v>
+        <v>1.017464809728375</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036212726342805</v>
+        <v>1.044773494597464</v>
       </c>
       <c r="J9">
-        <v>1.040831176303894</v>
+        <v>1.016036112986325</v>
       </c>
       <c r="K9">
-        <v>1.045549528037066</v>
+        <v>1.027297909651771</v>
       </c>
       <c r="L9">
-        <v>1.053227707083677</v>
+        <v>1.023761069839683</v>
       </c>
       <c r="M9">
-        <v>1.058531450371361</v>
+        <v>1.030280747933841</v>
       </c>
       <c r="N9">
-        <v>1.017497770284943</v>
+        <v>1.008921269106037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033216678861808</v>
+        <v>0.9803830136647464</v>
       </c>
       <c r="D10">
-        <v>1.041022003014896</v>
+        <v>1.007095195093802</v>
       </c>
       <c r="E10">
-        <v>1.048470523655201</v>
+        <v>1.002788404536764</v>
       </c>
       <c r="F10">
-        <v>1.053750438357903</v>
+        <v>1.009004042930174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035813145904611</v>
+        <v>1.041739582145558</v>
       </c>
       <c r="J10">
-        <v>1.039567830804744</v>
+        <v>1.009397159815995</v>
       </c>
       <c r="K10">
-        <v>1.044449754002666</v>
+        <v>1.021337514491311</v>
       </c>
       <c r="L10">
-        <v>1.051872150314914</v>
+        <v>1.01710749532897</v>
       </c>
       <c r="M10">
-        <v>1.057133792859839</v>
+        <v>1.023212607631544</v>
       </c>
       <c r="N10">
-        <v>1.017072922285086</v>
+        <v>1.006668341189542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032432787335734</v>
+        <v>0.9760094263375632</v>
       </c>
       <c r="D11">
-        <v>1.040421226257028</v>
+        <v>1.003807712210858</v>
       </c>
       <c r="E11">
-        <v>1.047761069058451</v>
+        <v>0.9991948612497457</v>
       </c>
       <c r="F11">
-        <v>1.053022879753895</v>
+        <v>1.00522206346405</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035637674467539</v>
+        <v>1.040361354036476</v>
       </c>
       <c r="J11">
-        <v>1.039019646884488</v>
+        <v>1.006415456210949</v>
       </c>
       <c r="K11">
-        <v>1.04397201660438</v>
+        <v>1.018658176140591</v>
       </c>
       <c r="L11">
-        <v>1.051285113050157</v>
+        <v>1.014131977297769</v>
       </c>
       <c r="M11">
-        <v>1.0565280029831</v>
+        <v>1.020046166706122</v>
       </c>
       <c r="N11">
-        <v>1.016888460550934</v>
+        <v>1.005656350711887</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032141530824292</v>
+        <v>0.9743602143710197</v>
       </c>
       <c r="D12">
-        <v>1.040197956951801</v>
+        <v>1.002569082862132</v>
       </c>
       <c r="E12">
-        <v>1.047497644356891</v>
+        <v>0.9978429544838104</v>
       </c>
       <c r="F12">
-        <v>1.05275265054933</v>
+        <v>1.003798261244589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035572128218073</v>
+        <v>1.039839211041646</v>
       </c>
       <c r="J12">
-        <v>1.038815853659719</v>
+        <v>1.005290780098695</v>
       </c>
       <c r="K12">
-        <v>1.043794333464679</v>
+        <v>1.017647228259845</v>
       </c>
       <c r="L12">
-        <v>1.051067049824915</v>
+        <v>1.013011597090219</v>
       </c>
       <c r="M12">
-        <v>1.056302895536532</v>
+        <v>1.018853052561135</v>
       </c>
       <c r="N12">
-        <v>1.016819867906678</v>
+        <v>1.005274623212605</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032204010181367</v>
+        <v>0.9747151206508819</v>
       </c>
       <c r="D13">
-        <v>1.04024585414668</v>
+        <v>1.002835583864918</v>
       </c>
       <c r="E13">
-        <v>1.047554145410065</v>
+        <v>0.9981337358969804</v>
       </c>
       <c r="F13">
-        <v>1.052810614808946</v>
+        <v>1.004104552500653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03558620478258</v>
+        <v>1.039951683178259</v>
       </c>
       <c r="J13">
-        <v>1.038859575856774</v>
+        <v>1.005532820684772</v>
       </c>
       <c r="K13">
-        <v>1.043832457528606</v>
+        <v>1.017864807388568</v>
       </c>
       <c r="L13">
-        <v>1.051113825654586</v>
+        <v>1.01325262371775</v>
       </c>
       <c r="M13">
-        <v>1.05635118593759</v>
+        <v>1.019109764824157</v>
       </c>
       <c r="N13">
-        <v>1.01683458467538</v>
+        <v>1.00535677485006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032408713712812</v>
+        <v>0.9758736153532891</v>
       </c>
       <c r="D14">
-        <v>1.040402773076866</v>
+        <v>1.003705690528744</v>
       </c>
       <c r="E14">
-        <v>1.047739292288205</v>
+        <v>0.9990834678753163</v>
       </c>
       <c r="F14">
-        <v>1.053000542151765</v>
+        <v>1.005104766687893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035632263909354</v>
+        <v>1.040318404907302</v>
       </c>
       <c r="J14">
-        <v>1.039002804814148</v>
+        <v>1.006322846263391</v>
       </c>
       <c r="K14">
-        <v>1.043957333960325</v>
+        <v>1.018574937297977</v>
       </c>
       <c r="L14">
-        <v>1.051267088112913</v>
+        <v>1.014039680955164</v>
       </c>
       <c r="M14">
-        <v>1.056509397373878</v>
+        <v>1.01994789583952</v>
       </c>
       <c r="N14">
-        <v>1.016882792200062</v>
+        <v>1.00562491806238</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032534827084798</v>
+        <v>0.9765840810727859</v>
       </c>
       <c r="D15">
-        <v>1.040499440876548</v>
+        <v>1.004239437631097</v>
       </c>
       <c r="E15">
-        <v>1.047853380401029</v>
+        <v>0.9996663278828442</v>
       </c>
       <c r="F15">
-        <v>1.053117565077283</v>
+        <v>1.005718474823897</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035660593642453</v>
+        <v>1.040542985476489</v>
       </c>
       <c r="J15">
-        <v>1.039091029907131</v>
+        <v>1.006807302543072</v>
       </c>
       <c r="K15">
-        <v>1.044034243928581</v>
+        <v>1.01901035908409</v>
       </c>
       <c r="L15">
-        <v>1.051361516637035</v>
+        <v>1.014522576897576</v>
       </c>
       <c r="M15">
-        <v>1.056606864698548</v>
+        <v>1.02046201607033</v>
       </c>
       <c r="N15">
-        <v>1.016912484455505</v>
+        <v>1.005789346442907</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033268691449017</v>
+        <v>0.9806699100001159</v>
       </c>
       <c r="D16">
-        <v>1.041061858624591</v>
+        <v>1.007310979957489</v>
       </c>
       <c r="E16">
-        <v>1.048517621642387</v>
+        <v>1.003024560198295</v>
       </c>
       <c r="F16">
-        <v>1.053798726658973</v>
+        <v>1.009252444292452</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035824739721381</v>
+        <v>1.041829648377159</v>
       </c>
       <c r="J16">
-        <v>1.039604187716425</v>
+        <v>1.009592702846296</v>
       </c>
       <c r="K16">
-        <v>1.044481427613438</v>
+        <v>1.021513181582698</v>
       </c>
       <c r="L16">
-        <v>1.051911108472251</v>
+        <v>1.01730290129994</v>
       </c>
       <c r="M16">
-        <v>1.05717398454188</v>
+        <v>1.023420435590678</v>
       </c>
       <c r="N16">
-        <v>1.017085153851509</v>
+        <v>1.006734706248663</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033728877106606</v>
+        <v>0.983190725600033</v>
       </c>
       <c r="D17">
-        <v>1.041414445759183</v>
+        <v>1.009207658394201</v>
       </c>
       <c r="E17">
-        <v>1.048934458496244</v>
+        <v>1.005101826299592</v>
       </c>
       <c r="F17">
-        <v>1.054226035082974</v>
+        <v>1.011436682800396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035927048027658</v>
+        <v>1.042619114987552</v>
       </c>
       <c r="J17">
-        <v>1.039925770277971</v>
+        <v>1.011310544985426</v>
       </c>
       <c r="K17">
-        <v>1.044761524593153</v>
+        <v>1.023056147379492</v>
       </c>
       <c r="L17">
-        <v>1.05225583315203</v>
+        <v>1.019020989466869</v>
       </c>
       <c r="M17">
-        <v>1.057529564038731</v>
+        <v>1.025247113646662</v>
       </c>
       <c r="N17">
-        <v>1.017193330821349</v>
+        <v>1.007317706368985</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033997242895603</v>
+        <v>0.9846464227973523</v>
       </c>
       <c r="D18">
-        <v>1.041620031016606</v>
+        <v>1.010303480881334</v>
       </c>
       <c r="E18">
-        <v>1.049177655959813</v>
+        <v>1.006303263142941</v>
       </c>
       <c r="F18">
-        <v>1.054475289285098</v>
+        <v>1.012699374960907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035986486310752</v>
+        <v>1.04307340898904</v>
       </c>
       <c r="J18">
-        <v>1.040113233346542</v>
+        <v>1.012302286887965</v>
       </c>
       <c r="K18">
-        <v>1.044924753038896</v>
+        <v>1.023946701730851</v>
       </c>
       <c r="L18">
-        <v>1.052456898297129</v>
+        <v>1.020014073891015</v>
       </c>
       <c r="M18">
-        <v>1.057736910190101</v>
+        <v>1.02630244292126</v>
       </c>
       <c r="N18">
-        <v>1.017256380417593</v>
+        <v>1.007654268253097</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034088739811994</v>
+        <v>0.9851403407073808</v>
       </c>
       <c r="D19">
-        <v>1.0416901179359</v>
+        <v>1.010675381873248</v>
       </c>
       <c r="E19">
-        <v>1.049260590812017</v>
+        <v>1.006711224313959</v>
       </c>
       <c r="F19">
-        <v>1.054560280658475</v>
+        <v>1.013128032543498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036006713133526</v>
+        <v>1.043227276663473</v>
       </c>
       <c r="J19">
-        <v>1.040177134678272</v>
+        <v>1.012638738011159</v>
       </c>
       <c r="K19">
-        <v>1.044980384740541</v>
+        <v>1.024248784917662</v>
       </c>
       <c r="L19">
-        <v>1.052525455157886</v>
+        <v>1.020351182797619</v>
       </c>
       <c r="M19">
-        <v>1.057807600162751</v>
+        <v>1.026660593118933</v>
       </c>
       <c r="N19">
-        <v>1.017277870532714</v>
+        <v>1.007768444974408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033679509009266</v>
+        <v>0.9829217929824386</v>
       </c>
       <c r="D20">
-        <v>1.041376624036919</v>
+        <v>1.00900525399377</v>
       </c>
       <c r="E20">
-        <v>1.048889729275723</v>
+        <v>1.004880017719242</v>
       </c>
       <c r="F20">
-        <v>1.054180187654393</v>
+        <v>1.011203515782891</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035916095770526</v>
+        <v>1.042535056361518</v>
       </c>
       <c r="J20">
-        <v>1.039891278960263</v>
+        <v>1.011127303985604</v>
       </c>
       <c r="K20">
-        <v>1.044731488087959</v>
+        <v>1.022891583756009</v>
       </c>
       <c r="L20">
-        <v>1.052218848178027</v>
+        <v>1.018837597243143</v>
       </c>
       <c r="M20">
-        <v>1.057491419662308</v>
+        <v>1.025052184596258</v>
       </c>
       <c r="N20">
-        <v>1.01718172944399</v>
+        <v>1.007255519629156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032348435967935</v>
+        <v>0.9755331626382802</v>
       </c>
       <c r="D21">
-        <v>1.040356567516449</v>
+        <v>1.00344995835002</v>
       </c>
       <c r="E21">
-        <v>1.04768476843795</v>
+        <v>0.9988042770091796</v>
       </c>
       <c r="F21">
-        <v>1.052944612780189</v>
+        <v>1.004810763545449</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035618710814187</v>
+        <v>1.040210700646078</v>
       </c>
       <c r="J21">
-        <v>1.038960632248238</v>
+        <v>1.006090685579444</v>
       </c>
       <c r="K21">
-        <v>1.043920567323415</v>
+        <v>1.018366263668681</v>
       </c>
       <c r="L21">
-        <v>1.051221956459704</v>
+        <v>1.013808338194321</v>
       </c>
       <c r="M21">
-        <v>1.056462810542677</v>
+        <v>1.019701564143992</v>
       </c>
       <c r="N21">
-        <v>1.016868598367537</v>
+        <v>1.005546120474351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031511048813188</v>
+        <v>0.9707439771406496</v>
       </c>
       <c r="D22">
-        <v>1.039714557247294</v>
+        <v>0.9998551982753204</v>
       </c>
       <c r="E22">
-        <v>1.046927730301591</v>
+        <v>0.9948846337932474</v>
       </c>
       <c r="F22">
-        <v>1.052167864188438</v>
+        <v>1.000680733574751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035429601860523</v>
+        <v>1.038689937015312</v>
       </c>
       <c r="J22">
-        <v>1.038374494515878</v>
+        <v>1.002824202514948</v>
       </c>
       <c r="K22">
-        <v>1.043409377072474</v>
+        <v>1.015429524262018</v>
       </c>
       <c r="L22">
-        <v>1.050595104540851</v>
+        <v>1.01055811279059</v>
       </c>
       <c r="M22">
-        <v>1.055815561427657</v>
+        <v>1.016238717051448</v>
       </c>
       <c r="N22">
-        <v>1.016671284388371</v>
+        <v>1.004437428487235</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031955010579558</v>
+        <v>0.9732970311946546</v>
       </c>
       <c r="D23">
-        <v>1.040054961813973</v>
+        <v>1.001770895617325</v>
       </c>
       <c r="E23">
-        <v>1.047328996852831</v>
+        <v>0.9969723450487975</v>
       </c>
       <c r="F23">
-        <v>1.052579623503016</v>
+        <v>1.002881065302015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035530054175829</v>
+        <v>1.039501932494818</v>
       </c>
       <c r="J23">
-        <v>1.038685312642675</v>
+        <v>1.00456566534575</v>
       </c>
       <c r="K23">
-        <v>1.043680495187105</v>
+        <v>1.016995351979419</v>
       </c>
       <c r="L23">
-        <v>1.050927417109806</v>
+        <v>1.012289811577444</v>
       </c>
       <c r="M23">
-        <v>1.056158730130177</v>
+        <v>1.018084169267595</v>
       </c>
       <c r="N23">
-        <v>1.016775925682117</v>
+        <v>1.005028509092794</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033701816490389</v>
+        <v>0.983043357211959</v>
       </c>
       <c r="D24">
-        <v>1.041393714270464</v>
+        <v>1.009096744130741</v>
       </c>
       <c r="E24">
-        <v>1.048909940288871</v>
+        <v>1.004980274900835</v>
       </c>
       <c r="F24">
-        <v>1.054200904095667</v>
+        <v>1.011308908867367</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035921045354669</v>
+        <v>1.042573057922705</v>
       </c>
       <c r="J24">
-        <v>1.039906864443909</v>
+        <v>1.011210134291646</v>
       </c>
       <c r="K24">
-        <v>1.044745060747264</v>
+        <v>1.022965972051291</v>
       </c>
       <c r="L24">
-        <v>1.05223556011734</v>
+        <v>1.018920492184364</v>
       </c>
       <c r="M24">
-        <v>1.05750865564147</v>
+        <v>1.02514029590541</v>
       </c>
       <c r="N24">
-        <v>1.017186971756019</v>
+        <v>1.007283629906147</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035726826270536</v>
+        <v>0.9937833080604872</v>
       </c>
       <c r="D25">
-        <v>1.042944405855067</v>
+        <v>1.017189991114562</v>
       </c>
       <c r="E25">
-        <v>1.050747033177167</v>
+        <v>1.013876140317141</v>
       </c>
       <c r="F25">
-        <v>1.056082800126429</v>
+        <v>1.020647657106144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036365495047791</v>
+        <v>1.04589561121316</v>
       </c>
       <c r="J25">
-        <v>1.041320072027453</v>
+        <v>1.018521715353623</v>
       </c>
       <c r="K25">
-        <v>1.045974650287754</v>
+        <v>1.029527189199782</v>
       </c>
       <c r="L25">
-        <v>1.053753317395288</v>
+        <v>1.026262799396864</v>
       </c>
       <c r="M25">
-        <v>1.059072921566171</v>
+        <v>1.03293368257744</v>
       </c>
       <c r="N25">
-        <v>1.017662077904109</v>
+        <v>1.009764567698736</v>
       </c>
     </row>
   </sheetData>
